--- a/Simulacion/Freq_G.xlsx
+++ b/Simulacion/Freq_G.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>Marcador</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>M9</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TT</t>
   </si>
 </sst>
 </file>
@@ -122,420 +137,420 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>253.0</v>
+        <v>488.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.253</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>509.0</v>
+        <v>431.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.509</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
-        <v>2.0</v>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>238.0</v>
+        <v>81.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.238</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.0</v>
+      <c r="B5" t="s">
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>267.0</v>
+        <v>513.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.267</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>1.0</v>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>491.0</v>
+        <v>405.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.491</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>2.0</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>242.0</v>
+        <v>82.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.0</v>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>253.0</v>
+        <v>81.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.253</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>1.0</v>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>509.0</v>
+        <v>431.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.509</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="n">
-        <v>2.0</v>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>238.0</v>
+        <v>488.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.238</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.0</v>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>253.0</v>
+        <v>488.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.253</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="n">
-        <v>1.0</v>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>509.0</v>
+        <v>431.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.509</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="n">
-        <v>2.0</v>
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>238.0</v>
+        <v>81.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.238</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.0</v>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>232.0</v>
+        <v>503.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.232</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.0</v>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>508.0</v>
+        <v>408.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.508</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
-        <v>2.0</v>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>260.0</v>
+        <v>89.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.26</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="n">
-        <v>0.0</v>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>235.0</v>
+        <v>464.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.235</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="n">
-        <v>1.0</v>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>511.0</v>
+        <v>451.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.511</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="n">
-        <v>2.0</v>
+      <c r="B19" t="s">
+        <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>254.0</v>
+        <v>85.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.254</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="n">
-        <v>0.0</v>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>252.0</v>
+        <v>92.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.252</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="n">
-        <v>1.0</v>
+      <c r="B21" t="s">
+        <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>493.0</v>
+        <v>406.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.493</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="n">
-        <v>2.0</v>
+      <c r="B22" t="s">
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>255.0</v>
+        <v>502.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.255</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="n">
-        <v>0.0</v>
+      <c r="B23" t="s">
+        <v>14</v>
       </c>
       <c r="C23" t="n">
-        <v>253.0</v>
+        <v>486.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.253</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" t="n">
-        <v>1.0</v>
+      <c r="B24" t="s">
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>462.0</v>
+        <v>409.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.462</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" t="n">
-        <v>2.0</v>
+      <c r="B25" t="s">
+        <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>285.0</v>
+        <v>105.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.285</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" t="n">
-        <v>0.0</v>
+      <c r="B26" t="s">
+        <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>257.0</v>
+        <v>78.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.257</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="n">
-        <v>1.0</v>
+      <c r="B27" t="s">
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>523.0</v>
+        <v>411.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.523</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="n">
-        <v>2.0</v>
+      <c r="B28" t="s">
+        <v>18</v>
       </c>
       <c r="C28" t="n">
-        <v>220.0</v>
+        <v>511.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.22</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="n">
-        <v>0.0</v>
+      <c r="B29" t="s">
+        <v>14</v>
       </c>
       <c r="C29" t="n">
-        <v>249.0</v>
+        <v>474.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B30" t="n">
-        <v>1.0</v>
+      <c r="B30" t="s">
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>490.0</v>
+        <v>417.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.49</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="n">
-        <v>2.0</v>
+      <c r="B31" t="s">
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>261.0</v>
+        <v>109.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.261</v>
+        <v>0.109</v>
       </c>
     </row>
   </sheetData>
